--- a/data/IEEE_9/ieee4/ieee4_2040.xlsx
+++ b/data/IEEE_9/ieee4/ieee4_2040.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\IEEE_9\ieee4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EA57859-6087-47AA-BC5B-3EA0998028F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4513BFC5-3E44-4008-A266-2B31BBFF33DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2550" yWindow="4290" windowWidth="21600" windowHeight="12660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4192,7 +4192,7 @@
       </c>
       <c r="B7" s="4">
         <f>SUM('RES installed'!$C$2:$C$5)</f>
-        <v>175</v>
+        <v>150</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -7225,99 +7225,99 @@
       </c>
       <c r="B3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!B$5</f>
-        <v>38.272936373558714</v>
+        <v>25.515290915705808</v>
       </c>
       <c r="C3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!C$5</f>
-        <v>35.369766595768503</v>
+        <v>23.579844397179002</v>
       </c>
       <c r="D3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!D$5</f>
-        <v>37.447396941117205</v>
+        <v>24.964931294078138</v>
       </c>
       <c r="E3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!E$5</f>
-        <v>37.284329872383303</v>
+        <v>24.8562199149222</v>
       </c>
       <c r="F3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!F$5</f>
-        <v>30.696602485167354</v>
+        <v>20.464401656778236</v>
       </c>
       <c r="G3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!G$5</f>
-        <v>31.135385648718241</v>
+        <v>20.756923765812161</v>
       </c>
       <c r="H3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!H$5</f>
-        <v>31.202325646479345</v>
+        <v>20.801550430986229</v>
       </c>
       <c r="I3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!I$5</f>
-        <v>28.020383689689911</v>
+        <v>18.680255793126609</v>
       </c>
       <c r="J3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!J$5</f>
-        <v>25.30556713869921</v>
+        <v>16.87037809246614</v>
       </c>
       <c r="K3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!K$5</f>
-        <v>18.29230941453039</v>
+        <v>12.194872943020259</v>
       </c>
       <c r="L3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!L$5</f>
-        <v>16.871876749132429</v>
+        <v>11.247917832754952</v>
       </c>
       <c r="M3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!M$5</f>
-        <v>11.319265644240456</v>
+        <v>7.5461770961603047</v>
       </c>
       <c r="N3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!N$5</f>
-        <v>9.4077364127392809</v>
+        <v>6.2718242751595206</v>
       </c>
       <c r="O3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!O$5</f>
-        <v>9.0076612000447778</v>
+        <v>6.0051074666965176</v>
       </c>
       <c r="P3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!P$5</f>
-        <v>12.496548611888503</v>
+        <v>8.3310324079256688</v>
       </c>
       <c r="Q3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!Q$5</f>
-        <v>16.904928005709163</v>
+        <v>11.269952003806109</v>
       </c>
       <c r="R3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!R$5</f>
-        <v>18.900631786633831</v>
+        <v>12.60042119108922</v>
       </c>
       <c r="S3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!S$5</f>
-        <v>25.958239463226246</v>
+        <v>17.305492975484164</v>
       </c>
       <c r="T3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!T$5</f>
-        <v>23.611071308630915</v>
+        <v>15.740714205753944</v>
       </c>
       <c r="U3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!U$5</f>
-        <v>22.446056755849099</v>
+        <v>14.964037837232732</v>
       </c>
       <c r="V3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!V$5</f>
-        <v>29.617004016008064</v>
+        <v>19.744669344005374</v>
       </c>
       <c r="W3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!W$5</f>
-        <v>35.422998292846749</v>
+        <v>23.615332195231165</v>
       </c>
       <c r="X3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!X$5</f>
-        <v>33.490304209112281</v>
+        <v>22.326869472741521</v>
       </c>
       <c r="Y3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!Y$5</f>
-        <v>47.603918056643906</v>
+        <v>31.735945371095937</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -7620,99 +7620,99 @@
       </c>
       <c r="B3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!B$6</f>
-        <v>51.944562838217287</v>
+        <v>34.629708558811522</v>
       </c>
       <c r="C3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!C$6</f>
-        <v>45.67746244511946</v>
+        <v>30.451641630079639</v>
       </c>
       <c r="D3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!D$6</f>
-        <v>37.593848114917279</v>
+        <v>25.062565409944852</v>
       </c>
       <c r="E3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!E$6</f>
-        <v>32.545671457014492</v>
+        <v>21.69711430467633</v>
       </c>
       <c r="F3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!F$6</f>
-        <v>30.34213150270574</v>
+        <v>20.228087668470494</v>
       </c>
       <c r="G3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!G$6</f>
-        <v>24.297518889115786</v>
+        <v>16.198345926077192</v>
       </c>
       <c r="H3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!H$6</f>
-        <v>23.656144067796607</v>
+        <v>15.770762711864405</v>
       </c>
       <c r="I3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!I$6</f>
-        <v>21.44727384112722</v>
+        <v>14.29818256075148</v>
       </c>
       <c r="J3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!J$6</f>
-        <v>22.10556080253216</v>
+        <v>14.737040535021439</v>
       </c>
       <c r="K3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!K$6</f>
-        <v>23.379157519910152</v>
+        <v>15.586105013273436</v>
       </c>
       <c r="L3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!L$6</f>
-        <v>23.400756681386561</v>
+        <v>15.600504454257708</v>
       </c>
       <c r="M3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!M$6</f>
-        <v>27.428965118950376</v>
+        <v>18.285976745966916</v>
       </c>
       <c r="N3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!N$6</f>
-        <v>27.440905465080661</v>
+        <v>18.293936976720442</v>
       </c>
       <c r="O3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!O$6</f>
-        <v>27.821669836124158</v>
+        <v>18.547779890749439</v>
       </c>
       <c r="P3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!P$6</f>
-        <v>31.328985699152547</v>
+        <v>20.885990466101699</v>
       </c>
       <c r="Q3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!Q$6</f>
-        <v>25.862387686338579</v>
+        <v>17.241591790892386</v>
       </c>
       <c r="R3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!R$6</f>
-        <v>26.791061172656722</v>
+        <v>17.860707448437815</v>
       </c>
       <c r="S3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!S$6</f>
-        <v>28.368473363794159</v>
+        <v>18.912315575862774</v>
       </c>
       <c r="T3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!T$6</f>
-        <v>24.747228373238713</v>
+        <v>16.498152248825811</v>
       </c>
       <c r="U3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!U$6</f>
-        <v>25.632646582091077</v>
+        <v>17.088431054727383</v>
       </c>
       <c r="V3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!V$6</f>
-        <v>24.020257619460896</v>
+        <v>16.013505079640598</v>
       </c>
       <c r="W3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!W$6</f>
-        <v>21.797845619767202</v>
+        <v>14.531897079844802</v>
       </c>
       <c r="X3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!X$6</f>
-        <v>22.341272079844803</v>
+        <v>14.894181386563202</v>
       </c>
       <c r="Y3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!Y$6</f>
-        <v>24.43104706963447</v>
+        <v>16.287364713089648</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -8015,99 +8015,99 @@
       </c>
       <c r="B3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!B$7</f>
-        <v>47.396150860625113</v>
+        <v>31.59743390708341</v>
       </c>
       <c r="C3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!C$7</f>
-        <v>44.050735170965503</v>
+        <v>29.367156780643665</v>
       </c>
       <c r="D3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!D$7</f>
-        <v>47.743311152052357</v>
+        <v>31.828874101368239</v>
       </c>
       <c r="E3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!E$7</f>
-        <v>53.235499175448986</v>
+        <v>35.490332783632653</v>
       </c>
       <c r="F3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!F$7</f>
-        <v>45.535812569249394</v>
+        <v>30.357208379499596</v>
       </c>
       <c r="G3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!G$7</f>
-        <v>38.630917441830498</v>
+        <v>25.753944961220331</v>
       </c>
       <c r="H3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!H$7</f>
-        <v>27.805425287948669</v>
+        <v>18.536950191965779</v>
       </c>
       <c r="I3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!I$7</f>
-        <v>24.751797263521347</v>
+        <v>16.501198175680898</v>
       </c>
       <c r="J3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!J$7</f>
-        <v>25.253326547965674</v>
+        <v>16.835551031977118</v>
       </c>
       <c r="K3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!K$7</f>
-        <v>24.68596427375093</v>
+        <v>16.457309515833956</v>
       </c>
       <c r="L3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!L$7</f>
-        <v>24.972347586899943</v>
+        <v>16.648231724599963</v>
       </c>
       <c r="M3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!M$7</f>
-        <v>26.266571542683398</v>
+        <v>17.511047695122265</v>
       </c>
       <c r="N3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!N$7</f>
-        <v>24.026748305805352</v>
+        <v>16.017832203870235</v>
       </c>
       <c r="O3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!O$7</f>
-        <v>23.153363749388024</v>
+        <v>15.43557583292535</v>
       </c>
       <c r="P3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!P$7</f>
-        <v>31.724696590996931</v>
+        <v>21.149797727331286</v>
       </c>
       <c r="Q3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!Q$7</f>
-        <v>41.329190716071004</v>
+        <v>27.552793810714004</v>
       </c>
       <c r="R3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!R$7</f>
-        <v>42.195882398412735</v>
+        <v>28.130588265608491</v>
       </c>
       <c r="S3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!S$7</f>
-        <v>42.958051611739542</v>
+        <v>28.638701074493028</v>
       </c>
       <c r="T3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!T$7</f>
-        <v>44.142639593908633</v>
+        <v>29.428426395939088</v>
       </c>
       <c r="U3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!U$7</f>
-        <v>46.567438448555741</v>
+        <v>31.044958965703827</v>
       </c>
       <c r="V3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!V$7</f>
-        <v>45.928876033909653</v>
+        <v>30.619250689273102</v>
       </c>
       <c r="W3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!W$7</f>
-        <v>44.947394289984281</v>
+        <v>29.964929526656185</v>
       </c>
       <c r="X3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!X$7</f>
-        <v>43.037841898786361</v>
+        <v>28.69189459919091</v>
       </c>
       <c r="Y3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!Y$7</f>
-        <v>39.694573745780623</v>
+        <v>26.463049163853746</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -9190,7 +9190,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9225,7 +9225,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="5">
-        <v>75</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -15632,99 +15632,99 @@
       </c>
       <c r="B3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!B$5</f>
-        <v>38.272936373558714</v>
+        <v>25.515290915705808</v>
       </c>
       <c r="C3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!C$5</f>
-        <v>35.369766595768503</v>
+        <v>23.579844397179002</v>
       </c>
       <c r="D3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!D$5</f>
-        <v>37.447396941117205</v>
+        <v>24.964931294078138</v>
       </c>
       <c r="E3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!E$5</f>
-        <v>37.284329872383303</v>
+        <v>24.8562199149222</v>
       </c>
       <c r="F3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!F$5</f>
-        <v>30.696602485167354</v>
+        <v>20.464401656778236</v>
       </c>
       <c r="G3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!G$5</f>
-        <v>31.135385648718241</v>
+        <v>20.756923765812161</v>
       </c>
       <c r="H3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!H$5</f>
-        <v>31.202325646479345</v>
+        <v>20.801550430986229</v>
       </c>
       <c r="I3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!I$5</f>
-        <v>28.020383689689911</v>
+        <v>18.680255793126609</v>
       </c>
       <c r="J3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!J$5</f>
-        <v>25.30556713869921</v>
+        <v>16.87037809246614</v>
       </c>
       <c r="K3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!K$5</f>
-        <v>18.29230941453039</v>
+        <v>12.194872943020259</v>
       </c>
       <c r="L3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!L$5</f>
-        <v>16.871876749132429</v>
+        <v>11.247917832754952</v>
       </c>
       <c r="M3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!M$5</f>
-        <v>11.319265644240456</v>
+        <v>7.5461770961603047</v>
       </c>
       <c r="N3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!N$5</f>
-        <v>9.4077364127392809</v>
+        <v>6.2718242751595206</v>
       </c>
       <c r="O3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!O$5</f>
-        <v>9.0076612000447778</v>
+        <v>6.0051074666965176</v>
       </c>
       <c r="P3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!P$5</f>
-        <v>12.496548611888503</v>
+        <v>8.3310324079256688</v>
       </c>
       <c r="Q3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!Q$5</f>
-        <v>16.904928005709163</v>
+        <v>11.269952003806109</v>
       </c>
       <c r="R3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!R$5</f>
-        <v>18.900631786633831</v>
+        <v>12.60042119108922</v>
       </c>
       <c r="S3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!S$5</f>
-        <v>25.958239463226246</v>
+        <v>17.305492975484164</v>
       </c>
       <c r="T3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!T$5</f>
-        <v>23.611071308630915</v>
+        <v>15.740714205753944</v>
       </c>
       <c r="U3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!U$5</f>
-        <v>22.446056755849099</v>
+        <v>14.964037837232732</v>
       </c>
       <c r="V3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!V$5</f>
-        <v>29.617004016008064</v>
+        <v>19.744669344005374</v>
       </c>
       <c r="W3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!W$5</f>
-        <v>35.422998292846749</v>
+        <v>23.615332195231165</v>
       </c>
       <c r="X3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!X$5</f>
-        <v>33.490304209112281</v>
+        <v>22.326869472741521</v>
       </c>
       <c r="Y3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!Y$5</f>
-        <v>47.603918056643906</v>
+        <v>31.735945371095937</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -16086,99 +16086,99 @@
       </c>
       <c r="B3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!B$6</f>
-        <v>51.944562838217287</v>
+        <v>34.629708558811522</v>
       </c>
       <c r="C3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!C$6</f>
-        <v>45.67746244511946</v>
+        <v>30.451641630079639</v>
       </c>
       <c r="D3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!D$6</f>
-        <v>37.593848114917279</v>
+        <v>25.062565409944852</v>
       </c>
       <c r="E3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!E$6</f>
-        <v>32.545671457014492</v>
+        <v>21.69711430467633</v>
       </c>
       <c r="F3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!F$6</f>
-        <v>30.34213150270574</v>
+        <v>20.228087668470494</v>
       </c>
       <c r="G3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!G$6</f>
-        <v>24.297518889115786</v>
+        <v>16.198345926077192</v>
       </c>
       <c r="H3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!H$6</f>
-        <v>23.656144067796607</v>
+        <v>15.770762711864405</v>
       </c>
       <c r="I3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!I$6</f>
-        <v>21.44727384112722</v>
+        <v>14.29818256075148</v>
       </c>
       <c r="J3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!J$6</f>
-        <v>22.10556080253216</v>
+        <v>14.737040535021439</v>
       </c>
       <c r="K3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!K$6</f>
-        <v>23.379157519910152</v>
+        <v>15.586105013273436</v>
       </c>
       <c r="L3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!L$6</f>
-        <v>23.400756681386561</v>
+        <v>15.600504454257708</v>
       </c>
       <c r="M3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!M$6</f>
-        <v>27.428965118950376</v>
+        <v>18.285976745966916</v>
       </c>
       <c r="N3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!N$6</f>
-        <v>27.440905465080661</v>
+        <v>18.293936976720442</v>
       </c>
       <c r="O3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!O$6</f>
-        <v>27.821669836124158</v>
+        <v>18.547779890749439</v>
       </c>
       <c r="P3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!P$6</f>
-        <v>31.328985699152547</v>
+        <v>20.885990466101699</v>
       </c>
       <c r="Q3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!Q$6</f>
-        <v>25.862387686338579</v>
+        <v>17.241591790892386</v>
       </c>
       <c r="R3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!R$6</f>
-        <v>26.791061172656722</v>
+        <v>17.860707448437815</v>
       </c>
       <c r="S3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!S$6</f>
-        <v>28.368473363794159</v>
+        <v>18.912315575862774</v>
       </c>
       <c r="T3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!T$6</f>
-        <v>24.747228373238713</v>
+        <v>16.498152248825811</v>
       </c>
       <c r="U3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!U$6</f>
-        <v>25.632646582091077</v>
+        <v>17.088431054727383</v>
       </c>
       <c r="V3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!V$6</f>
-        <v>24.020257619460896</v>
+        <v>16.013505079640598</v>
       </c>
       <c r="W3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!W$6</f>
-        <v>21.797845619767202</v>
+        <v>14.531897079844802</v>
       </c>
       <c r="X3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!X$6</f>
-        <v>22.341272079844803</v>
+        <v>14.894181386563202</v>
       </c>
       <c r="Y3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!Y$6</f>
-        <v>24.43104706963447</v>
+        <v>16.287364713089648</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -16481,99 +16481,99 @@
       </c>
       <c r="B3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!B$7</f>
-        <v>47.396150860625113</v>
+        <v>31.59743390708341</v>
       </c>
       <c r="C3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!C$7</f>
-        <v>44.050735170965503</v>
+        <v>29.367156780643665</v>
       </c>
       <c r="D3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!D$7</f>
-        <v>47.743311152052357</v>
+        <v>31.828874101368239</v>
       </c>
       <c r="E3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!E$7</f>
-        <v>53.235499175448986</v>
+        <v>35.490332783632653</v>
       </c>
       <c r="F3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!F$7</f>
-        <v>45.535812569249394</v>
+        <v>30.357208379499596</v>
       </c>
       <c r="G3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!G$7</f>
-        <v>38.630917441830498</v>
+        <v>25.753944961220331</v>
       </c>
       <c r="H3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!H$7</f>
-        <v>27.805425287948669</v>
+        <v>18.536950191965779</v>
       </c>
       <c r="I3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!I$7</f>
-        <v>24.751797263521347</v>
+        <v>16.501198175680898</v>
       </c>
       <c r="J3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!J$7</f>
-        <v>25.253326547965674</v>
+        <v>16.835551031977118</v>
       </c>
       <c r="K3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!K$7</f>
-        <v>24.68596427375093</v>
+        <v>16.457309515833956</v>
       </c>
       <c r="L3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!L$7</f>
-        <v>24.972347586899943</v>
+        <v>16.648231724599963</v>
       </c>
       <c r="M3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!M$7</f>
-        <v>26.266571542683398</v>
+        <v>17.511047695122265</v>
       </c>
       <c r="N3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!N$7</f>
-        <v>24.026748305805352</v>
+        <v>16.017832203870235</v>
       </c>
       <c r="O3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!O$7</f>
-        <v>23.153363749388024</v>
+        <v>15.43557583292535</v>
       </c>
       <c r="P3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!P$7</f>
-        <v>31.724696590996931</v>
+        <v>21.149797727331286</v>
       </c>
       <c r="Q3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!Q$7</f>
-        <v>41.329190716071004</v>
+        <v>27.552793810714004</v>
       </c>
       <c r="R3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!R$7</f>
-        <v>42.195882398412735</v>
+        <v>28.130588265608491</v>
       </c>
       <c r="S3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!S$7</f>
-        <v>42.958051611739542</v>
+        <v>28.638701074493028</v>
       </c>
       <c r="T3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!T$7</f>
-        <v>44.142639593908633</v>
+        <v>29.428426395939088</v>
       </c>
       <c r="U3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!U$7</f>
-        <v>46.567438448555741</v>
+        <v>31.044958965703827</v>
       </c>
       <c r="V3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!V$7</f>
-        <v>45.928876033909653</v>
+        <v>30.619250689273102</v>
       </c>
       <c r="W3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!W$7</f>
-        <v>44.947394289984281</v>
+        <v>29.964929526656185</v>
       </c>
       <c r="X3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!X$7</f>
-        <v>43.037841898786361</v>
+        <v>28.69189459919091</v>
       </c>
       <c r="Y3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!Y$7</f>
-        <v>39.694573745780623</v>
+        <v>26.463049163853746</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">

--- a/data/IEEE_9/ieee4/ieee4_2040.xlsx
+++ b/data/IEEE_9/ieee4/ieee4_2040.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\IEEE_9\ieee4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4513BFC5-3E44-4008-A266-2B31BBFF33DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A43987C-911F-4810-8C96-7C435D400DF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2550" yWindow="4290" windowWidth="21600" windowHeight="12660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4192,7 +4192,7 @@
       </c>
       <c r="B7" s="4">
         <f>SUM('RES installed'!$C$2:$C$5)</f>
-        <v>150</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -7132,7 +7132,7 @@
       </c>
       <c r="D2" s="7">
         <f>VLOOKUP($A2,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!D$2</f>
-        <v>7.8403584163847483E-4</v>
+        <v>3.9201792081923741E-4</v>
       </c>
       <c r="E2" s="7">
         <f>VLOOKUP($A2,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!E$2</f>
@@ -7152,55 +7152,55 @@
       </c>
       <c r="I2" s="7">
         <f>VLOOKUP($A2,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!I$2</f>
-        <v>0.47675779464204066</v>
+        <v>0.23837889732102033</v>
       </c>
       <c r="J2" s="7">
         <f>VLOOKUP($A2,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!J$2</f>
-        <v>9.445119776904086</v>
+        <v>4.722559888452043</v>
       </c>
       <c r="K2" s="7">
         <f>VLOOKUP($A2,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!K$2</f>
-        <v>24.645046630703117</v>
+        <v>12.322523315351559</v>
       </c>
       <c r="L2" s="7">
         <f>VLOOKUP($A2,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!L$2</f>
-        <v>30.755805979701922</v>
+        <v>15.377902989850961</v>
       </c>
       <c r="M2" s="7">
         <f>VLOOKUP($A2,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!M$2</f>
-        <v>34.160569626040036</v>
+        <v>17.080284813020018</v>
       </c>
       <c r="N2" s="7">
         <f>VLOOKUP($A2,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!N$2</f>
-        <v>34.794070586083933</v>
+        <v>17.397035293041966</v>
       </c>
       <c r="O2" s="7">
         <f>VLOOKUP($A2,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!O$2</f>
-        <v>34.155161378805879</v>
+        <v>17.077580689402939</v>
       </c>
       <c r="P2" s="7">
         <f>VLOOKUP($A2,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!P$2</f>
-        <v>29.163669196306113</v>
+        <v>14.581834598153057</v>
       </c>
       <c r="Q2" s="7">
         <f>VLOOKUP($A2,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!Q$2</f>
-        <v>19.272161013074882</v>
+        <v>9.6360805065374411</v>
       </c>
       <c r="R2" s="7">
         <f>VLOOKUP($A2,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!R$2</f>
-        <v>4.708415241839627</v>
+        <v>2.3542076209198135</v>
       </c>
       <c r="S2" s="7">
         <f>VLOOKUP($A2,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!S$2</f>
-        <v>3.6801682362622296E-2</v>
+        <v>1.8400841181311148E-2</v>
       </c>
       <c r="T2" s="7">
         <f>VLOOKUP($A2,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!T$2</f>
-        <v>3.168144829477919E-3</v>
+        <v>1.5840724147389595E-3</v>
       </c>
       <c r="U2" s="7">
         <f>VLOOKUP($A2,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!U$2</f>
-        <v>2.4241108164944685E-3</v>
+        <v>1.2120554082472343E-3</v>
       </c>
       <c r="V2" s="7">
         <f>VLOOKUP($A2,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!V$2</f>
@@ -7225,99 +7225,99 @@
       </c>
       <c r="B3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!B$5</f>
-        <v>25.515290915705808</v>
+        <v>12.757645457852904</v>
       </c>
       <c r="C3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!C$5</f>
-        <v>23.579844397179002</v>
+        <v>11.789922198589501</v>
       </c>
       <c r="D3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!D$5</f>
-        <v>24.964931294078138</v>
+        <v>12.482465647039069</v>
       </c>
       <c r="E3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!E$5</f>
-        <v>24.8562199149222</v>
+        <v>12.4281099574611</v>
       </c>
       <c r="F3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!F$5</f>
-        <v>20.464401656778236</v>
+        <v>10.232200828389118</v>
       </c>
       <c r="G3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!G$5</f>
-        <v>20.756923765812161</v>
+        <v>10.37846188290608</v>
       </c>
       <c r="H3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!H$5</f>
-        <v>20.801550430986229</v>
+        <v>10.400775215493114</v>
       </c>
       <c r="I3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!I$5</f>
-        <v>18.680255793126609</v>
+        <v>9.3401278965633043</v>
       </c>
       <c r="J3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!J$5</f>
-        <v>16.87037809246614</v>
+        <v>8.4351890462330701</v>
       </c>
       <c r="K3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!K$5</f>
-        <v>12.194872943020259</v>
+        <v>6.0974364715101297</v>
       </c>
       <c r="L3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!L$5</f>
-        <v>11.247917832754952</v>
+        <v>5.6239589163774761</v>
       </c>
       <c r="M3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!M$5</f>
-        <v>7.5461770961603047</v>
+        <v>3.7730885480801524</v>
       </c>
       <c r="N3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!N$5</f>
-        <v>6.2718242751595206</v>
+        <v>3.1359121375797603</v>
       </c>
       <c r="O3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!O$5</f>
-        <v>6.0051074666965176</v>
+        <v>3.0025537333482588</v>
       </c>
       <c r="P3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!P$5</f>
-        <v>8.3310324079256688</v>
+        <v>4.1655162039628344</v>
       </c>
       <c r="Q3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!Q$5</f>
-        <v>11.269952003806109</v>
+        <v>5.6349760019030546</v>
       </c>
       <c r="R3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!R$5</f>
-        <v>12.60042119108922</v>
+        <v>6.3002105955446099</v>
       </c>
       <c r="S3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!S$5</f>
-        <v>17.305492975484164</v>
+        <v>8.6527464877420819</v>
       </c>
       <c r="T3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!T$5</f>
-        <v>15.740714205753944</v>
+        <v>7.8703571028769721</v>
       </c>
       <c r="U3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!U$5</f>
-        <v>14.964037837232732</v>
+        <v>7.4820189186163661</v>
       </c>
       <c r="V3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!V$5</f>
-        <v>19.744669344005374</v>
+        <v>9.8723346720026868</v>
       </c>
       <c r="W3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!W$5</f>
-        <v>23.615332195231165</v>
+        <v>11.807666097615583</v>
       </c>
       <c r="X3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!X$5</f>
-        <v>22.326869472741521</v>
+        <v>11.16343473637076</v>
       </c>
       <c r="Y3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!Y$5</f>
-        <v>31.735945371095937</v>
+        <v>15.867972685547969</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -7523,7 +7523,7 @@
       </c>
       <c r="C2" s="7">
         <f>VLOOKUP($A2,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!C$3</f>
-        <v>1.3627049180327867E-3</v>
+        <v>6.8135245901639334E-4</v>
       </c>
       <c r="D2" s="7">
         <f>VLOOKUP($A2,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!D$3</f>
@@ -7547,51 +7547,51 @@
       </c>
       <c r="I2" s="7">
         <f>VLOOKUP($A2,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!I$3</f>
-        <v>0.38200204918032782</v>
+        <v>0.19100102459016391</v>
       </c>
       <c r="J2" s="7">
         <f>VLOOKUP($A2,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!J$3</f>
-        <v>7.5186885245901625</v>
+        <v>3.7593442622950812</v>
       </c>
       <c r="K2" s="7">
         <f>VLOOKUP($A2,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!K$3</f>
-        <v>17.885860655737705</v>
+        <v>8.9429303278688526</v>
       </c>
       <c r="L2" s="7">
         <f>VLOOKUP($A2,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!L$3</f>
-        <v>24.069040983606556</v>
+        <v>12.034520491803278</v>
       </c>
       <c r="M2" s="7">
         <f>VLOOKUP($A2,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!M$3</f>
-        <v>29.519803278688521</v>
+        <v>14.75990163934426</v>
       </c>
       <c r="N2" s="7">
         <f>VLOOKUP($A2,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!N$3</f>
-        <v>35.057090163934426</v>
+        <v>17.528545081967213</v>
       </c>
       <c r="O2" s="7">
         <f>VLOOKUP($A2,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!O$3</f>
-        <v>29.255911885245901</v>
+        <v>14.62795594262295</v>
       </c>
       <c r="P2" s="7">
         <f>VLOOKUP($A2,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!P$3</f>
-        <v>21.497243852459018</v>
+        <v>10.748621926229509</v>
       </c>
       <c r="Q2" s="7">
         <f>VLOOKUP($A2,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!Q$3</f>
-        <v>10.312491803278688</v>
+        <v>5.1562459016393438</v>
       </c>
       <c r="R2" s="7">
         <f>VLOOKUP($A2,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!R$3</f>
-        <v>2.1544364754098355</v>
+        <v>1.0772182377049178</v>
       </c>
       <c r="S2" s="7">
         <f>VLOOKUP($A2,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!S$3</f>
-        <v>1.3770491803278686E-2</v>
+        <v>6.885245901639343E-3</v>
       </c>
       <c r="T2" s="7">
         <f>VLOOKUP($A2,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!T$3</f>
-        <v>6.0245901639344257E-3</v>
+        <v>3.0122950819672129E-3</v>
       </c>
       <c r="U2" s="7">
         <f>VLOOKUP($A2,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!U$3</f>
@@ -7620,99 +7620,99 @@
       </c>
       <c r="B3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!B$6</f>
-        <v>34.629708558811522</v>
+        <v>17.314854279405761</v>
       </c>
       <c r="C3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!C$6</f>
-        <v>30.451641630079639</v>
+        <v>15.225820815039819</v>
       </c>
       <c r="D3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!D$6</f>
-        <v>25.062565409944852</v>
+        <v>12.531282704972426</v>
       </c>
       <c r="E3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!E$6</f>
-        <v>21.69711430467633</v>
+        <v>10.848557152338165</v>
       </c>
       <c r="F3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!F$6</f>
-        <v>20.228087668470494</v>
+        <v>10.114043834235247</v>
       </c>
       <c r="G3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!G$6</f>
-        <v>16.198345926077192</v>
+        <v>8.0991729630385958</v>
       </c>
       <c r="H3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!H$6</f>
-        <v>15.770762711864405</v>
+        <v>7.8853813559322026</v>
       </c>
       <c r="I3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!I$6</f>
-        <v>14.29818256075148</v>
+        <v>7.1490912803757398</v>
       </c>
       <c r="J3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!J$6</f>
-        <v>14.737040535021439</v>
+        <v>7.3685202675107195</v>
       </c>
       <c r="K3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!K$6</f>
-        <v>15.586105013273436</v>
+        <v>7.7930525066367178</v>
       </c>
       <c r="L3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!L$6</f>
-        <v>15.600504454257708</v>
+        <v>7.8002522271288539</v>
       </c>
       <c r="M3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!M$6</f>
-        <v>18.285976745966916</v>
+        <v>9.1429883729834582</v>
       </c>
       <c r="N3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!N$6</f>
-        <v>18.293936976720442</v>
+        <v>9.1469684883602209</v>
       </c>
       <c r="O3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!O$6</f>
-        <v>18.547779890749439</v>
+        <v>9.2738899453747194</v>
       </c>
       <c r="P3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!P$6</f>
-        <v>20.885990466101699</v>
+        <v>10.44299523305085</v>
       </c>
       <c r="Q3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!Q$6</f>
-        <v>17.241591790892386</v>
+        <v>8.620795895446193</v>
       </c>
       <c r="R3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!R$6</f>
-        <v>17.860707448437815</v>
+        <v>8.9303537242189073</v>
       </c>
       <c r="S3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!S$6</f>
-        <v>18.912315575862774</v>
+        <v>9.4561577879313869</v>
       </c>
       <c r="T3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!T$6</f>
-        <v>16.498152248825811</v>
+        <v>8.2490761244129054</v>
       </c>
       <c r="U3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!U$6</f>
-        <v>17.088431054727383</v>
+        <v>8.5442155273636917</v>
       </c>
       <c r="V3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!V$6</f>
-        <v>16.013505079640598</v>
+        <v>8.0067525398202992</v>
       </c>
       <c r="W3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!W$6</f>
-        <v>14.531897079844802</v>
+        <v>7.2659485399224009</v>
       </c>
       <c r="X3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!X$6</f>
-        <v>14.894181386563202</v>
+        <v>7.4470906932816012</v>
       </c>
       <c r="Y3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!Y$6</f>
-        <v>16.287364713089648</v>
+        <v>8.143682356544824</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -7942,47 +7942,47 @@
       </c>
       <c r="I2" s="7">
         <f>VLOOKUP($A2,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!I$4</f>
-        <v>0.41302834725385973</v>
+        <v>0.20651417362692986</v>
       </c>
       <c r="J2" s="7">
         <f>VLOOKUP($A2,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!J$4</f>
-        <v>9.018911351556568</v>
+        <v>4.509455675778284</v>
       </c>
       <c r="K2" s="7">
         <f>VLOOKUP($A2,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!K$4</f>
-        <v>20.997730005062007</v>
+        <v>10.498865002531003</v>
       </c>
       <c r="L2" s="7">
         <f>VLOOKUP($A2,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!L$4</f>
-        <v>30.28084662110858</v>
+        <v>15.14042331055429</v>
       </c>
       <c r="M2" s="7">
         <f>VLOOKUP($A2,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!M$4</f>
-        <v>31.172400974436844</v>
+        <v>15.586200487218422</v>
       </c>
       <c r="N2" s="7">
         <f>VLOOKUP($A2,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!N$4</f>
-        <v>29.598685459377368</v>
+        <v>14.799342729688684</v>
       </c>
       <c r="O2" s="7">
         <f>VLOOKUP($A2,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!O$4</f>
-        <v>23.173769298911665</v>
+        <v>11.586884649455833</v>
       </c>
       <c r="P2" s="7">
         <f>VLOOKUP($A2,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!P$4</f>
-        <v>17.851063022019741</v>
+        <v>8.9255315110098703</v>
       </c>
       <c r="Q2" s="7">
         <f>VLOOKUP($A2,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!Q$4</f>
-        <v>7.5744748165021507</v>
+        <v>3.7872374082510754</v>
       </c>
       <c r="R2" s="7">
         <f>VLOOKUP($A2,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!R$4</f>
-        <v>1.3372484813971144</v>
+        <v>0.66862424069855719</v>
       </c>
       <c r="S2" s="7">
         <f>VLOOKUP($A2,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!S$4</f>
-        <v>2.170336623639585E-3</v>
+        <v>1.0851683118197925E-3</v>
       </c>
       <c r="T2" s="7">
         <f>VLOOKUP($A2,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!T$4</f>
@@ -8015,99 +8015,99 @@
       </c>
       <c r="B3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!B$7</f>
-        <v>31.59743390708341</v>
+        <v>15.798716953541705</v>
       </c>
       <c r="C3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!C$7</f>
-        <v>29.367156780643665</v>
+        <v>14.683578390321832</v>
       </c>
       <c r="D3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!D$7</f>
-        <v>31.828874101368239</v>
+        <v>15.91443705068412</v>
       </c>
       <c r="E3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!E$7</f>
-        <v>35.490332783632653</v>
+        <v>17.745166391816326</v>
       </c>
       <c r="F3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!F$7</f>
-        <v>30.357208379499596</v>
+        <v>15.178604189749798</v>
       </c>
       <c r="G3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!G$7</f>
-        <v>25.753944961220331</v>
+        <v>12.876972480610165</v>
       </c>
       <c r="H3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!H$7</f>
-        <v>18.536950191965779</v>
+        <v>9.2684750959828897</v>
       </c>
       <c r="I3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!I$7</f>
-        <v>16.501198175680898</v>
+        <v>8.2505990878404489</v>
       </c>
       <c r="J3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!J$7</f>
-        <v>16.835551031977118</v>
+        <v>8.4177755159885592</v>
       </c>
       <c r="K3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!K$7</f>
-        <v>16.457309515833956</v>
+        <v>8.2286547579169778</v>
       </c>
       <c r="L3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!L$7</f>
-        <v>16.648231724599963</v>
+        <v>8.3241158622999816</v>
       </c>
       <c r="M3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!M$7</f>
-        <v>17.511047695122265</v>
+        <v>8.7555238475611326</v>
       </c>
       <c r="N3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!N$7</f>
-        <v>16.017832203870235</v>
+        <v>8.0089161019351174</v>
       </c>
       <c r="O3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!O$7</f>
-        <v>15.43557583292535</v>
+        <v>7.717787916462675</v>
       </c>
       <c r="P3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!P$7</f>
-        <v>21.149797727331286</v>
+        <v>10.574898863665643</v>
       </c>
       <c r="Q3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!Q$7</f>
-        <v>27.552793810714004</v>
+        <v>13.776396905357002</v>
       </c>
       <c r="R3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!R$7</f>
-        <v>28.130588265608491</v>
+        <v>14.065294132804246</v>
       </c>
       <c r="S3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!S$7</f>
-        <v>28.638701074493028</v>
+        <v>14.319350537246514</v>
       </c>
       <c r="T3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!T$7</f>
-        <v>29.428426395939088</v>
+        <v>14.714213197969544</v>
       </c>
       <c r="U3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!U$7</f>
-        <v>31.044958965703827</v>
+        <v>15.522479482851914</v>
       </c>
       <c r="V3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!V$7</f>
-        <v>30.619250689273102</v>
+        <v>15.309625344636551</v>
       </c>
       <c r="W3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!W$7</f>
-        <v>29.964929526656185</v>
+        <v>14.982464763328093</v>
       </c>
       <c r="X3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!X$7</f>
-        <v>28.69189459919091</v>
+        <v>14.345947299595455</v>
       </c>
       <c r="Y3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!Y$7</f>
-        <v>26.463049163853746</v>
+        <v>13.231524581926873</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -9214,7 +9214,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="5">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -9225,7 +9225,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="5">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -15539,7 +15539,7 @@
       </c>
       <c r="D2" s="7">
         <f>VLOOKUP($A2,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!D$2</f>
-        <v>9.8788516046447827E-4</v>
+        <v>4.9394258023223914E-4</v>
       </c>
       <c r="E2" s="7">
         <f>VLOOKUP($A2,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!E$2</f>
@@ -15559,55 +15559,55 @@
       </c>
       <c r="I2" s="7">
         <f>VLOOKUP($A2,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!I$2</f>
-        <v>0.57687693151686925</v>
+        <v>0.28843846575843463</v>
       </c>
       <c r="J2" s="7">
         <f>VLOOKUP($A2,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!J$2</f>
-        <v>11.995302116668189</v>
+        <v>5.9976510583340943</v>
       </c>
       <c r="K2" s="7">
         <f>VLOOKUP($A2,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!K$2</f>
-        <v>31.792110153607016</v>
+        <v>15.896055076803508</v>
       </c>
       <c r="L2" s="7">
         <f>VLOOKUP($A2,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!L$2</f>
-        <v>39.982547773612502</v>
+        <v>19.991273886806251</v>
       </c>
       <c r="M2" s="7">
         <f>VLOOKUP($A2,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!M$2</f>
-        <v>41.334289247508444</v>
+        <v>20.667144623754222</v>
       </c>
       <c r="N2" s="7">
         <f>VLOOKUP($A2,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!N$2</f>
-        <v>45.232291761909117</v>
+        <v>22.616145880954559</v>
       </c>
       <c r="O2" s="7">
         <f>VLOOKUP($A2,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!O$2</f>
-        <v>44.060158178659584</v>
+        <v>22.030079089329792</v>
       </c>
       <c r="P2" s="7">
         <f>VLOOKUP($A2,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!P$2</f>
-        <v>37.037859879308762</v>
+        <v>18.518929939654381</v>
       </c>
       <c r="Q2" s="7">
         <f>VLOOKUP($A2,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!Q$2</f>
-        <v>23.704758046082105</v>
+        <v>11.852379023041053</v>
       </c>
       <c r="R2" s="7">
         <f>VLOOKUP($A2,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!R$2</f>
-        <v>5.9326032047179291</v>
+        <v>2.9663016023589646</v>
       </c>
       <c r="S2" s="7">
         <f>VLOOKUP($A2,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!S$2</f>
-        <v>4.6370119776904091E-2</v>
+        <v>2.3185059888452045E-2</v>
       </c>
       <c r="T2" s="7">
         <f>VLOOKUP($A2,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!T$2</f>
-        <v>3.9284995885526201E-3</v>
+        <v>1.96424979427631E-3</v>
       </c>
       <c r="U2" s="7">
         <f>VLOOKUP($A2,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!U$2</f>
-        <v>2.9331740879583066E-3</v>
+        <v>1.4665870439791533E-3</v>
       </c>
       <c r="V2" s="7">
         <f>VLOOKUP($A2,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!V$2</f>
@@ -15632,99 +15632,99 @@
       </c>
       <c r="B3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!B$5</f>
-        <v>25.515290915705808</v>
+        <v>12.757645457852904</v>
       </c>
       <c r="C3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!C$5</f>
-        <v>23.579844397179002</v>
+        <v>11.789922198589501</v>
       </c>
       <c r="D3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!D$5</f>
-        <v>24.964931294078138</v>
+        <v>12.482465647039069</v>
       </c>
       <c r="E3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!E$5</f>
-        <v>24.8562199149222</v>
+        <v>12.4281099574611</v>
       </c>
       <c r="F3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!F$5</f>
-        <v>20.464401656778236</v>
+        <v>10.232200828389118</v>
       </c>
       <c r="G3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!G$5</f>
-        <v>20.756923765812161</v>
+        <v>10.37846188290608</v>
       </c>
       <c r="H3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!H$5</f>
-        <v>20.801550430986229</v>
+        <v>10.400775215493114</v>
       </c>
       <c r="I3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!I$5</f>
-        <v>18.680255793126609</v>
+        <v>9.3401278965633043</v>
       </c>
       <c r="J3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!J$5</f>
-        <v>16.87037809246614</v>
+        <v>8.4351890462330701</v>
       </c>
       <c r="K3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!K$5</f>
-        <v>12.194872943020259</v>
+        <v>6.0974364715101297</v>
       </c>
       <c r="L3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!L$5</f>
-        <v>11.247917832754952</v>
+        <v>5.6239589163774761</v>
       </c>
       <c r="M3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!M$5</f>
-        <v>7.5461770961603047</v>
+        <v>3.7730885480801524</v>
       </c>
       <c r="N3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!N$5</f>
-        <v>6.2718242751595206</v>
+        <v>3.1359121375797603</v>
       </c>
       <c r="O3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!O$5</f>
-        <v>6.0051074666965176</v>
+        <v>3.0025537333482588</v>
       </c>
       <c r="P3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!P$5</f>
-        <v>8.3310324079256688</v>
+        <v>4.1655162039628344</v>
       </c>
       <c r="Q3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!Q$5</f>
-        <v>11.269952003806109</v>
+        <v>5.6349760019030546</v>
       </c>
       <c r="R3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!R$5</f>
-        <v>12.60042119108922</v>
+        <v>6.3002105955446099</v>
       </c>
       <c r="S3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!S$5</f>
-        <v>17.305492975484164</v>
+        <v>8.6527464877420819</v>
       </c>
       <c r="T3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!T$5</f>
-        <v>15.740714205753944</v>
+        <v>7.8703571028769721</v>
       </c>
       <c r="U3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!U$5</f>
-        <v>14.964037837232732</v>
+        <v>7.4820189186163661</v>
       </c>
       <c r="V3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!V$5</f>
-        <v>19.744669344005374</v>
+        <v>9.8723346720026868</v>
       </c>
       <c r="W3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!W$5</f>
-        <v>23.615332195231165</v>
+        <v>11.807666097615583</v>
       </c>
       <c r="X3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!X$5</f>
-        <v>22.326869472741521</v>
+        <v>11.16343473637076</v>
       </c>
       <c r="Y3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!Y$5</f>
-        <v>31.735945371095937</v>
+        <v>15.867972685547969</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -15989,7 +15989,7 @@
       </c>
       <c r="C2" s="7">
         <f>VLOOKUP($A2,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!C$3</f>
-        <v>1.7306352459016392E-3</v>
+        <v>8.6531762295081961E-4</v>
       </c>
       <c r="D2" s="7">
         <f>VLOOKUP($A2,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!D$3</f>
@@ -16013,51 +16013,51 @@
       </c>
       <c r="I2" s="7">
         <f>VLOOKUP($A2,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!I$3</f>
-        <v>0.49660266393442615</v>
+        <v>0.24830133196721307</v>
       </c>
       <c r="J2" s="7">
         <f>VLOOKUP($A2,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!J$3</f>
-        <v>9.6991081967213102</v>
+        <v>4.8495540983606551</v>
       </c>
       <c r="K2" s="7">
         <f>VLOOKUP($A2,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!K$3</f>
-        <v>23.072760245901641</v>
+        <v>11.53638012295082</v>
       </c>
       <c r="L2" s="7">
         <f>VLOOKUP($A2,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!L$3</f>
-        <v>30.567682049180327</v>
+        <v>15.283841024590163</v>
       </c>
       <c r="M2" s="7">
         <f>VLOOKUP($A2,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!M$3</f>
-        <v>38.375744262295079</v>
+        <v>19.18787213114754</v>
       </c>
       <c r="N2" s="7">
         <f>VLOOKUP($A2,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!N$3</f>
-        <v>45.57421721311475</v>
+        <v>22.787108606557375</v>
       </c>
       <c r="O2" s="7">
         <f>VLOOKUP($A2,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!O$3</f>
-        <v>38.03268545081967</v>
+        <v>19.016342725409835</v>
       </c>
       <c r="P2" s="7">
         <f>VLOOKUP($A2,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!P$3</f>
-        <v>26.226637499999999</v>
+        <v>13.113318749999999</v>
       </c>
       <c r="Q2" s="7">
         <f>VLOOKUP($A2,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!Q$3</f>
-        <v>13.096864590163934</v>
+        <v>6.5484322950819669</v>
       </c>
       <c r="R2" s="7">
         <f>VLOOKUP($A2,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!R$3</f>
-        <v>2.7576786885245896</v>
+        <v>1.3788393442622948</v>
       </c>
       <c r="S2" s="7">
         <f>VLOOKUP($A2,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!S$3</f>
-        <v>1.6662295081967208E-2</v>
+        <v>8.331147540983604E-3</v>
       </c>
       <c r="T2" s="7">
         <f>VLOOKUP($A2,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!T$3</f>
-        <v>7.3499999999999998E-3</v>
+        <v>3.6749999999999999E-3</v>
       </c>
       <c r="U2" s="7">
         <f>VLOOKUP($A2,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!U$3</f>
@@ -16086,99 +16086,99 @@
       </c>
       <c r="B3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!B$6</f>
-        <v>34.629708558811522</v>
+        <v>17.314854279405761</v>
       </c>
       <c r="C3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!C$6</f>
-        <v>30.451641630079639</v>
+        <v>15.225820815039819</v>
       </c>
       <c r="D3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!D$6</f>
-        <v>25.062565409944852</v>
+        <v>12.531282704972426</v>
       </c>
       <c r="E3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!E$6</f>
-        <v>21.69711430467633</v>
+        <v>10.848557152338165</v>
       </c>
       <c r="F3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!F$6</f>
-        <v>20.228087668470494</v>
+        <v>10.114043834235247</v>
       </c>
       <c r="G3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!G$6</f>
-        <v>16.198345926077192</v>
+        <v>8.0991729630385958</v>
       </c>
       <c r="H3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!H$6</f>
-        <v>15.770762711864405</v>
+        <v>7.8853813559322026</v>
       </c>
       <c r="I3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!I$6</f>
-        <v>14.29818256075148</v>
+        <v>7.1490912803757398</v>
       </c>
       <c r="J3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!J$6</f>
-        <v>14.737040535021439</v>
+        <v>7.3685202675107195</v>
       </c>
       <c r="K3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!K$6</f>
-        <v>15.586105013273436</v>
+        <v>7.7930525066367178</v>
       </c>
       <c r="L3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!L$6</f>
-        <v>15.600504454257708</v>
+        <v>7.8002522271288539</v>
       </c>
       <c r="M3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!M$6</f>
-        <v>18.285976745966916</v>
+        <v>9.1429883729834582</v>
       </c>
       <c r="N3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!N$6</f>
-        <v>18.293936976720442</v>
+        <v>9.1469684883602209</v>
       </c>
       <c r="O3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!O$6</f>
-        <v>18.547779890749439</v>
+        <v>9.2738899453747194</v>
       </c>
       <c r="P3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!P$6</f>
-        <v>20.885990466101699</v>
+        <v>10.44299523305085</v>
       </c>
       <c r="Q3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!Q$6</f>
-        <v>17.241591790892386</v>
+        <v>8.620795895446193</v>
       </c>
       <c r="R3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!R$6</f>
-        <v>17.860707448437815</v>
+        <v>8.9303537242189073</v>
       </c>
       <c r="S3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!S$6</f>
-        <v>18.912315575862774</v>
+        <v>9.4561577879313869</v>
       </c>
       <c r="T3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!T$6</f>
-        <v>16.498152248825811</v>
+        <v>8.2490761244129054</v>
       </c>
       <c r="U3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!U$6</f>
-        <v>17.088431054727383</v>
+        <v>8.5442155273636917</v>
       </c>
       <c r="V3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!V$6</f>
-        <v>16.013505079640598</v>
+        <v>8.0067525398202992</v>
       </c>
       <c r="W3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!W$6</f>
-        <v>14.531897079844802</v>
+        <v>7.2659485399224009</v>
       </c>
       <c r="X3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!X$6</f>
-        <v>14.894181386563202</v>
+        <v>7.4470906932816012</v>
       </c>
       <c r="Y3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!Y$6</f>
-        <v>16.287364713089648</v>
+        <v>8.143682356544824</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -16408,47 +16408,47 @@
       </c>
       <c r="I2" s="7">
         <f>VLOOKUP($A2,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!I$4</f>
-        <v>0.512155150594786</v>
+        <v>0.256077575297393</v>
       </c>
       <c r="J2" s="7">
         <f>VLOOKUP($A2,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!J$4</f>
-        <v>11.093260962414577</v>
+        <v>5.5466304812072886</v>
       </c>
       <c r="K2" s="7">
         <f>VLOOKUP($A2,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!K$4</f>
-        <v>26.037185206276884</v>
+        <v>13.018592603138442</v>
       </c>
       <c r="L2" s="7">
         <f>VLOOKUP($A2,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!L$4</f>
-        <v>38.456675208807901</v>
+        <v>19.228337604403951</v>
       </c>
       <c r="M2" s="7">
         <f>VLOOKUP($A2,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!M$4</f>
-        <v>40.212397257023525</v>
+        <v>20.106198628511763</v>
       </c>
       <c r="N2" s="7">
         <f>VLOOKUP($A2,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!N$4</f>
-        <v>35.51842255125284</v>
+        <v>17.75921127562642</v>
       </c>
       <c r="O2" s="7">
         <f>VLOOKUP($A2,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!O$4</f>
-        <v>28.503736237661347</v>
+        <v>14.251868118830673</v>
       </c>
       <c r="P2" s="7">
         <f>VLOOKUP($A2,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!P$4</f>
-        <v>22.849360668185266</v>
+        <v>11.424680334092633</v>
       </c>
       <c r="Q2" s="7">
         <f>VLOOKUP($A2,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!Q$4</f>
-        <v>9.7710725132877752</v>
+        <v>4.8855362566438876</v>
       </c>
       <c r="R2" s="7">
         <f>VLOOKUP($A2,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!R$4</f>
-        <v>1.7250505410022776</v>
+        <v>0.86252527050113881</v>
       </c>
       <c r="S2" s="7">
         <f>VLOOKUP($A2,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!S$4</f>
-        <v>2.8214376107314606E-3</v>
+        <v>1.4107188053657303E-3</v>
       </c>
       <c r="T2" s="7">
         <f>VLOOKUP($A2,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!T$4</f>
@@ -16481,99 +16481,99 @@
       </c>
       <c r="B3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!B$7</f>
-        <v>31.59743390708341</v>
+        <v>15.798716953541705</v>
       </c>
       <c r="C3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!C$7</f>
-        <v>29.367156780643665</v>
+        <v>14.683578390321832</v>
       </c>
       <c r="D3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!D$7</f>
-        <v>31.828874101368239</v>
+        <v>15.91443705068412</v>
       </c>
       <c r="E3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!E$7</f>
-        <v>35.490332783632653</v>
+        <v>17.745166391816326</v>
       </c>
       <c r="F3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!F$7</f>
-        <v>30.357208379499596</v>
+        <v>15.178604189749798</v>
       </c>
       <c r="G3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!G$7</f>
-        <v>25.753944961220331</v>
+        <v>12.876972480610165</v>
       </c>
       <c r="H3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!H$7</f>
-        <v>18.536950191965779</v>
+        <v>9.2684750959828897</v>
       </c>
       <c r="I3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!I$7</f>
-        <v>16.501198175680898</v>
+        <v>8.2505990878404489</v>
       </c>
       <c r="J3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!J$7</f>
-        <v>16.835551031977118</v>
+        <v>8.4177755159885592</v>
       </c>
       <c r="K3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!K$7</f>
-        <v>16.457309515833956</v>
+        <v>8.2286547579169778</v>
       </c>
       <c r="L3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!L$7</f>
-        <v>16.648231724599963</v>
+        <v>8.3241158622999816</v>
       </c>
       <c r="M3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!M$7</f>
-        <v>17.511047695122265</v>
+        <v>8.7555238475611326</v>
       </c>
       <c r="N3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!N$7</f>
-        <v>16.017832203870235</v>
+        <v>8.0089161019351174</v>
       </c>
       <c r="O3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!O$7</f>
-        <v>15.43557583292535</v>
+        <v>7.717787916462675</v>
       </c>
       <c r="P3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!P$7</f>
-        <v>21.149797727331286</v>
+        <v>10.574898863665643</v>
       </c>
       <c r="Q3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!Q$7</f>
-        <v>27.552793810714004</v>
+        <v>13.776396905357002</v>
       </c>
       <c r="R3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!R$7</f>
-        <v>28.130588265608491</v>
+        <v>14.065294132804246</v>
       </c>
       <c r="S3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!S$7</f>
-        <v>28.638701074493028</v>
+        <v>14.319350537246514</v>
       </c>
       <c r="T3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!T$7</f>
-        <v>29.428426395939088</v>
+        <v>14.714213197969544</v>
       </c>
       <c r="U3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!U$7</f>
-        <v>31.044958965703827</v>
+        <v>15.522479482851914</v>
       </c>
       <c r="V3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!V$7</f>
-        <v>30.619250689273102</v>
+        <v>15.309625344636551</v>
       </c>
       <c r="W3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!W$7</f>
-        <v>29.964929526656185</v>
+        <v>14.982464763328093</v>
       </c>
       <c r="X3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!X$7</f>
-        <v>28.69189459919091</v>
+        <v>14.345947299595455</v>
       </c>
       <c r="Y3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!Y$7</f>
-        <v>26.463049163853746</v>
+        <v>13.231524581926873</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">

--- a/data/IEEE_9/ieee4/ieee4_2040.xlsx
+++ b/data/IEEE_9/ieee4/ieee4_2040.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\IEEE_9\ieee4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A43987C-911F-4810-8C96-7C435D400DF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E3E6E7E-7B3A-4AA0-BA5E-FD9C23B4CD48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2550" yWindow="4290" windowWidth="21600" windowHeight="12660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4192,7 +4192,7 @@
       </c>
       <c r="B7" s="4">
         <f>SUM('RES installed'!$C$2:$C$5)</f>
-        <v>100</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -7132,7 +7132,7 @@
       </c>
       <c r="D2" s="7">
         <f>VLOOKUP($A2,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!D$2</f>
-        <v>3.9201792081923741E-4</v>
+        <v>7.8403584163847483E-4</v>
       </c>
       <c r="E2" s="7">
         <f>VLOOKUP($A2,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!E$2</f>
@@ -7152,55 +7152,55 @@
       </c>
       <c r="I2" s="7">
         <f>VLOOKUP($A2,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!I$2</f>
-        <v>0.23837889732102033</v>
+        <v>0.47675779464204066</v>
       </c>
       <c r="J2" s="7">
         <f>VLOOKUP($A2,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!J$2</f>
-        <v>4.722559888452043</v>
+        <v>9.445119776904086</v>
       </c>
       <c r="K2" s="7">
         <f>VLOOKUP($A2,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!K$2</f>
-        <v>12.322523315351559</v>
+        <v>24.645046630703117</v>
       </c>
       <c r="L2" s="7">
         <f>VLOOKUP($A2,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!L$2</f>
-        <v>15.377902989850961</v>
+        <v>30.755805979701922</v>
       </c>
       <c r="M2" s="7">
         <f>VLOOKUP($A2,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!M$2</f>
-        <v>17.080284813020018</v>
+        <v>34.160569626040036</v>
       </c>
       <c r="N2" s="7">
         <f>VLOOKUP($A2,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!N$2</f>
-        <v>17.397035293041966</v>
+        <v>34.794070586083933</v>
       </c>
       <c r="O2" s="7">
         <f>VLOOKUP($A2,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!O$2</f>
-        <v>17.077580689402939</v>
+        <v>34.155161378805879</v>
       </c>
       <c r="P2" s="7">
         <f>VLOOKUP($A2,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!P$2</f>
-        <v>14.581834598153057</v>
+        <v>29.163669196306113</v>
       </c>
       <c r="Q2" s="7">
         <f>VLOOKUP($A2,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!Q$2</f>
-        <v>9.6360805065374411</v>
+        <v>19.272161013074882</v>
       </c>
       <c r="R2" s="7">
         <f>VLOOKUP($A2,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!R$2</f>
-        <v>2.3542076209198135</v>
+        <v>4.708415241839627</v>
       </c>
       <c r="S2" s="7">
         <f>VLOOKUP($A2,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!S$2</f>
-        <v>1.8400841181311148E-2</v>
+        <v>3.6801682362622296E-2</v>
       </c>
       <c r="T2" s="7">
         <f>VLOOKUP($A2,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!T$2</f>
-        <v>1.5840724147389595E-3</v>
+        <v>3.168144829477919E-3</v>
       </c>
       <c r="U2" s="7">
         <f>VLOOKUP($A2,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!U$2</f>
-        <v>1.2120554082472343E-3</v>
+        <v>2.4241108164944685E-3</v>
       </c>
       <c r="V2" s="7">
         <f>VLOOKUP($A2,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!V$2</f>
@@ -7523,7 +7523,7 @@
       </c>
       <c r="C2" s="7">
         <f>VLOOKUP($A2,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!C$3</f>
-        <v>6.8135245901639334E-4</v>
+        <v>1.3627049180327867E-3</v>
       </c>
       <c r="D2" s="7">
         <f>VLOOKUP($A2,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!D$3</f>
@@ -7547,51 +7547,51 @@
       </c>
       <c r="I2" s="7">
         <f>VLOOKUP($A2,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!I$3</f>
-        <v>0.19100102459016391</v>
+        <v>0.38200204918032782</v>
       </c>
       <c r="J2" s="7">
         <f>VLOOKUP($A2,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!J$3</f>
-        <v>3.7593442622950812</v>
+        <v>7.5186885245901625</v>
       </c>
       <c r="K2" s="7">
         <f>VLOOKUP($A2,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!K$3</f>
-        <v>8.9429303278688526</v>
+        <v>17.885860655737705</v>
       </c>
       <c r="L2" s="7">
         <f>VLOOKUP($A2,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!L$3</f>
-        <v>12.034520491803278</v>
+        <v>24.069040983606556</v>
       </c>
       <c r="M2" s="7">
         <f>VLOOKUP($A2,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!M$3</f>
-        <v>14.75990163934426</v>
+        <v>29.519803278688521</v>
       </c>
       <c r="N2" s="7">
         <f>VLOOKUP($A2,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!N$3</f>
-        <v>17.528545081967213</v>
+        <v>35.057090163934426</v>
       </c>
       <c r="O2" s="7">
         <f>VLOOKUP($A2,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!O$3</f>
-        <v>14.62795594262295</v>
+        <v>29.255911885245901</v>
       </c>
       <c r="P2" s="7">
         <f>VLOOKUP($A2,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!P$3</f>
-        <v>10.748621926229509</v>
+        <v>21.497243852459018</v>
       </c>
       <c r="Q2" s="7">
         <f>VLOOKUP($A2,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!Q$3</f>
-        <v>5.1562459016393438</v>
+        <v>10.312491803278688</v>
       </c>
       <c r="R2" s="7">
         <f>VLOOKUP($A2,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!R$3</f>
-        <v>1.0772182377049178</v>
+        <v>2.1544364754098355</v>
       </c>
       <c r="S2" s="7">
         <f>VLOOKUP($A2,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!S$3</f>
-        <v>6.885245901639343E-3</v>
+        <v>1.3770491803278686E-2</v>
       </c>
       <c r="T2" s="7">
         <f>VLOOKUP($A2,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!T$3</f>
-        <v>3.0122950819672129E-3</v>
+        <v>6.0245901639344257E-3</v>
       </c>
       <c r="U2" s="7">
         <f>VLOOKUP($A2,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!U$3</f>
@@ -7942,47 +7942,47 @@
       </c>
       <c r="I2" s="7">
         <f>VLOOKUP($A2,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!I$4</f>
-        <v>0.20651417362692986</v>
+        <v>0.41302834725385973</v>
       </c>
       <c r="J2" s="7">
         <f>VLOOKUP($A2,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!J$4</f>
-        <v>4.509455675778284</v>
+        <v>9.018911351556568</v>
       </c>
       <c r="K2" s="7">
         <f>VLOOKUP($A2,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!K$4</f>
-        <v>10.498865002531003</v>
+        <v>20.997730005062007</v>
       </c>
       <c r="L2" s="7">
         <f>VLOOKUP($A2,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!L$4</f>
-        <v>15.14042331055429</v>
+        <v>30.28084662110858</v>
       </c>
       <c r="M2" s="7">
         <f>VLOOKUP($A2,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!M$4</f>
-        <v>15.586200487218422</v>
+        <v>31.172400974436844</v>
       </c>
       <c r="N2" s="7">
         <f>VLOOKUP($A2,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!N$4</f>
-        <v>14.799342729688684</v>
+        <v>29.598685459377368</v>
       </c>
       <c r="O2" s="7">
         <f>VLOOKUP($A2,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!O$4</f>
-        <v>11.586884649455833</v>
+        <v>23.173769298911665</v>
       </c>
       <c r="P2" s="7">
         <f>VLOOKUP($A2,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!P$4</f>
-        <v>8.9255315110098703</v>
+        <v>17.851063022019741</v>
       </c>
       <c r="Q2" s="7">
         <f>VLOOKUP($A2,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!Q$4</f>
-        <v>3.7872374082510754</v>
+        <v>7.5744748165021507</v>
       </c>
       <c r="R2" s="7">
         <f>VLOOKUP($A2,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!R$4</f>
-        <v>0.66862424069855719</v>
+        <v>1.3372484813971144</v>
       </c>
       <c r="S2" s="7">
         <f>VLOOKUP($A2,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!S$4</f>
-        <v>1.0851683118197925E-3</v>
+        <v>2.170336623639585E-3</v>
       </c>
       <c r="T2" s="7">
         <f>VLOOKUP($A2,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!T$4</f>
@@ -9190,7 +9190,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9214,7 +9214,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="5">
-        <v>25</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -15539,7 +15539,7 @@
       </c>
       <c r="D2" s="7">
         <f>VLOOKUP($A2,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!D$2</f>
-        <v>4.9394258023223914E-4</v>
+        <v>9.8788516046447827E-4</v>
       </c>
       <c r="E2" s="7">
         <f>VLOOKUP($A2,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!E$2</f>
@@ -15559,55 +15559,55 @@
       </c>
       <c r="I2" s="7">
         <f>VLOOKUP($A2,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!I$2</f>
-        <v>0.28843846575843463</v>
+        <v>0.57687693151686925</v>
       </c>
       <c r="J2" s="7">
         <f>VLOOKUP($A2,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!J$2</f>
-        <v>5.9976510583340943</v>
+        <v>11.995302116668189</v>
       </c>
       <c r="K2" s="7">
         <f>VLOOKUP($A2,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!K$2</f>
-        <v>15.896055076803508</v>
+        <v>31.792110153607016</v>
       </c>
       <c r="L2" s="7">
         <f>VLOOKUP($A2,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!L$2</f>
-        <v>19.991273886806251</v>
+        <v>39.982547773612502</v>
       </c>
       <c r="M2" s="7">
         <f>VLOOKUP($A2,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!M$2</f>
-        <v>20.667144623754222</v>
+        <v>41.334289247508444</v>
       </c>
       <c r="N2" s="7">
         <f>VLOOKUP($A2,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!N$2</f>
-        <v>22.616145880954559</v>
+        <v>45.232291761909117</v>
       </c>
       <c r="O2" s="7">
         <f>VLOOKUP($A2,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!O$2</f>
-        <v>22.030079089329792</v>
+        <v>44.060158178659584</v>
       </c>
       <c r="P2" s="7">
         <f>VLOOKUP($A2,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!P$2</f>
-        <v>18.518929939654381</v>
+        <v>37.037859879308762</v>
       </c>
       <c r="Q2" s="7">
         <f>VLOOKUP($A2,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!Q$2</f>
-        <v>11.852379023041053</v>
+        <v>23.704758046082105</v>
       </c>
       <c r="R2" s="7">
         <f>VLOOKUP($A2,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!R$2</f>
-        <v>2.9663016023589646</v>
+        <v>5.9326032047179291</v>
       </c>
       <c r="S2" s="7">
         <f>VLOOKUP($A2,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!S$2</f>
-        <v>2.3185059888452045E-2</v>
+        <v>4.6370119776904091E-2</v>
       </c>
       <c r="T2" s="7">
         <f>VLOOKUP($A2,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!T$2</f>
-        <v>1.96424979427631E-3</v>
+        <v>3.9284995885526201E-3</v>
       </c>
       <c r="U2" s="7">
         <f>VLOOKUP($A2,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!U$2</f>
-        <v>1.4665870439791533E-3</v>
+        <v>2.9331740879583066E-3</v>
       </c>
       <c r="V2" s="7">
         <f>VLOOKUP($A2,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!V$2</f>
@@ -15989,7 +15989,7 @@
       </c>
       <c r="C2" s="7">
         <f>VLOOKUP($A2,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!C$3</f>
-        <v>8.6531762295081961E-4</v>
+        <v>1.7306352459016392E-3</v>
       </c>
       <c r="D2" s="7">
         <f>VLOOKUP($A2,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!D$3</f>
@@ -16013,51 +16013,51 @@
       </c>
       <c r="I2" s="7">
         <f>VLOOKUP($A2,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!I$3</f>
-        <v>0.24830133196721307</v>
+        <v>0.49660266393442615</v>
       </c>
       <c r="J2" s="7">
         <f>VLOOKUP($A2,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!J$3</f>
-        <v>4.8495540983606551</v>
+        <v>9.6991081967213102</v>
       </c>
       <c r="K2" s="7">
         <f>VLOOKUP($A2,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!K$3</f>
-        <v>11.53638012295082</v>
+        <v>23.072760245901641</v>
       </c>
       <c r="L2" s="7">
         <f>VLOOKUP($A2,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!L$3</f>
-        <v>15.283841024590163</v>
+        <v>30.567682049180327</v>
       </c>
       <c r="M2" s="7">
         <f>VLOOKUP($A2,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!M$3</f>
-        <v>19.18787213114754</v>
+        <v>38.375744262295079</v>
       </c>
       <c r="N2" s="7">
         <f>VLOOKUP($A2,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!N$3</f>
-        <v>22.787108606557375</v>
+        <v>45.57421721311475</v>
       </c>
       <c r="O2" s="7">
         <f>VLOOKUP($A2,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!O$3</f>
-        <v>19.016342725409835</v>
+        <v>38.03268545081967</v>
       </c>
       <c r="P2" s="7">
         <f>VLOOKUP($A2,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!P$3</f>
-        <v>13.113318749999999</v>
+        <v>26.226637499999999</v>
       </c>
       <c r="Q2" s="7">
         <f>VLOOKUP($A2,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!Q$3</f>
-        <v>6.5484322950819669</v>
+        <v>13.096864590163934</v>
       </c>
       <c r="R2" s="7">
         <f>VLOOKUP($A2,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!R$3</f>
-        <v>1.3788393442622948</v>
+        <v>2.7576786885245896</v>
       </c>
       <c r="S2" s="7">
         <f>VLOOKUP($A2,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!S$3</f>
-        <v>8.331147540983604E-3</v>
+        <v>1.6662295081967208E-2</v>
       </c>
       <c r="T2" s="7">
         <f>VLOOKUP($A2,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!T$3</f>
-        <v>3.6749999999999999E-3</v>
+        <v>7.3499999999999998E-3</v>
       </c>
       <c r="U2" s="7">
         <f>VLOOKUP($A2,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!U$3</f>
@@ -16408,47 +16408,47 @@
       </c>
       <c r="I2" s="7">
         <f>VLOOKUP($A2,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!I$4</f>
-        <v>0.256077575297393</v>
+        <v>0.512155150594786</v>
       </c>
       <c r="J2" s="7">
         <f>VLOOKUP($A2,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!J$4</f>
-        <v>5.5466304812072886</v>
+        <v>11.093260962414577</v>
       </c>
       <c r="K2" s="7">
         <f>VLOOKUP($A2,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!K$4</f>
-        <v>13.018592603138442</v>
+        <v>26.037185206276884</v>
       </c>
       <c r="L2" s="7">
         <f>VLOOKUP($A2,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!L$4</f>
-        <v>19.228337604403951</v>
+        <v>38.456675208807901</v>
       </c>
       <c r="M2" s="7">
         <f>VLOOKUP($A2,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!M$4</f>
-        <v>20.106198628511763</v>
+        <v>40.212397257023525</v>
       </c>
       <c r="N2" s="7">
         <f>VLOOKUP($A2,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!N$4</f>
-        <v>17.75921127562642</v>
+        <v>35.51842255125284</v>
       </c>
       <c r="O2" s="7">
         <f>VLOOKUP($A2,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!O$4</f>
-        <v>14.251868118830673</v>
+        <v>28.503736237661347</v>
       </c>
       <c r="P2" s="7">
         <f>VLOOKUP($A2,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!P$4</f>
-        <v>11.424680334092633</v>
+        <v>22.849360668185266</v>
       </c>
       <c r="Q2" s="7">
         <f>VLOOKUP($A2,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!Q$4</f>
-        <v>4.8855362566438876</v>
+        <v>9.7710725132877752</v>
       </c>
       <c r="R2" s="7">
         <f>VLOOKUP($A2,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!R$4</f>
-        <v>0.86252527050113881</v>
+        <v>1.7250505410022776</v>
       </c>
       <c r="S2" s="7">
         <f>VLOOKUP($A2,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!S$4</f>
-        <v>1.4107188053657303E-3</v>
+        <v>2.8214376107314606E-3</v>
       </c>
       <c r="T2" s="7">
         <f>VLOOKUP($A2,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!T$4</f>
